--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_ex01_end.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_ex01_end.xlsx
@@ -1600,7 +1600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Alty looks at the “key” in her hand.
+    <t xml:space="preserve">Alty looks at the 'key' in her hand.
 </t>
   </si>
   <si>
@@ -2012,7 +2012,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Frost"]  I’ll call this song... "D"!
+    <t xml:space="preserve">[name="Frost"]  I’ll call this song... 'D'!
 </t>
   </si>
   <si>
@@ -2076,7 +2076,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria B"]  It might be like what the priests do, it’s called "music"?
+    <t xml:space="preserve">[name="Archosauria B"]  It might be like what the priests do, it’s called 'music'?
 </t>
   </si>
   <si>
@@ -2084,23 +2084,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria D"]  I know, they must be "Cuicayotl"!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dan"]  "Cuicayotl"?  What’s that?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  Oh, that’s how you say "one who sings" in their language.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  But it’s been a long time since they had a "Cuicayotl" here, and you’ve won them over with your music.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  And I must say, your music is vastly different from that of any other "Cuicayotl" I’ve ever heard before!
+    <t xml:space="preserve">[name="Archosauria D"]  I know, they must be 'Cuicayotl'!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dan"]  'Cuicayotl'?  What’s that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  Oh, that’s how you say 'one who sings' in their language.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  But it’s been a long time since they had a 'Cuicayotl' here, and you’ve won them over with your music.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  And I must say, your music is vastly different from that of any other 'Cuicayotl' I’ve ever heard before!
 </t>
   </si>
   <si>
@@ -2108,7 +2108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria E"]  "Cuicayotl", give us another song!
+    <t xml:space="preserve">[name="Archosauria E"]  'Cuicayotl', give us another song!
 </t>
   </si>
   <si>
@@ -2172,11 +2172,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  That’s right. This is where all the tribes used to gather for the "Mahuizzotia", but it hasn’t been used since Gavial left.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  "Mahuizzotia"?
+    <t xml:space="preserve">[name="Inam"]  That’s right. This is where all the tribes used to gather for the 'Mahuizzotia', but it hasn’t been used since Gavial left.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  'Mahuizzotia'?
 </t>
   </si>
   <si>
@@ -2244,7 +2244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  "We left. Don’t miss us. I hope you enjoyed the music. Also, we left all our records here for you. Have fun.  -AUS"
+    <t xml:space="preserve">[name="Inam"]  'We left. Don’t miss us. I hope you enjoyed the music. Also, we left all our records here for you. Have fun.  -AUS'
 </t>
   </si>
   <si>
@@ -2324,7 +2324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Alty looks at the key in her hand, "Dr. Kal'tsit, can that Rhodes Island of yours give the world the answer it’s looking for?"
+    <t xml:space="preserve">Alty looks at the key in her hand, 'Dr. Kal'tsit, can that Rhodes Island of yours give the world the answer it’s looking for?'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_ex01_end.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_ex01_end.xlsx
@@ -1572,11 +1572,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  Please. It’s not often we get such a peaceful environment with no one chasing us. Can’t we just have a nice, quiet rest?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  But Alty, I can smell the sea from here. Are you sure we’re safe?
+    <t xml:space="preserve">[name="Alty"]  Please. It's not often we get such a peaceful environment with no one chasing us. Can't we just have a nice, quiet rest?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  But Alty, I can smell the sea from here. Are you sure we're safe?
 </t>
   </si>
   <si>
@@ -1588,11 +1588,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  Maybe you’re right.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  So what’s the next step? How are we going to broaden our path? We can’t go back empty-handed. 
+    <t xml:space="preserve">[name="Aya"]  Maybe you're right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  So what's the next step? How are we going to broaden our path? We can't go back empty-handed. 
 </t>
   </si>
   <si>
@@ -1616,11 +1616,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  I’m not sure. But I think that doctor wants us to put this knowledge to use.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  Wouldn’t she know?
+    <t xml:space="preserve">[name="Alty"]  I'm not sure. But I think that doctor wants us to put this knowledge to use.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  Wouldn't she know?
 </t>
   </si>
   <si>
@@ -1632,7 +1632,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dan"]  So, that means she didn’t pay anything?
+    <t xml:space="preserve">[name="Dan"]  So, that means she didn't pay anything?
 </t>
   </si>
   <si>
@@ -1644,7 +1644,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  We’ve been cheated.
+    <t xml:space="preserve">[name="Aya"]  We've been cheated.
 </t>
   </si>
   <si>
@@ -1664,7 +1664,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  No. I think she’s trying to tell us that her actions have no impact at all.
+    <t xml:space="preserve">[name="Alty"]  No. I think she's trying to tell us that her actions have no impact at all.
 </t>
   </si>
   <si>
@@ -1680,7 +1680,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  I’m thinking it’s sort of like music... Our power should not be to force change onto others, we should just be singing our own songs.
+    <t xml:space="preserve">[name="Alty"]  I'm thinking it's sort of like music... Our power should not be to force change onto others, we should just be singing our own songs.
 </t>
   </si>
   <si>
@@ -1688,7 +1688,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dan"]  Then they’ll sing too.
+    <t xml:space="preserve">[name="Dan"]  Then they'll sing too.
 </t>
   </si>
   <si>
@@ -1700,11 +1700,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  I don’t know.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  Maybe they haven’t been born yet.
+    <t xml:space="preserve">[name="Alty"]  I don't know.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  Maybe they haven't been born yet.
 </t>
   </si>
   <si>
@@ -1712,7 +1712,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  No it wouldn’t, Dan. We... hm?
+    <t xml:space="preserve">[name="Alty"]  No it wouldn't, Dan. We... hm?
 </t>
   </si>
   <si>
@@ -1720,11 +1720,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  The car’s dead.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  Didn’t you prep it?
+    <t xml:space="preserve">[name="Alty"]  The car's dead.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  Didn't you prep it?
 </t>
   </si>
   <si>
@@ -1732,23 +1732,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  And I have to admit, it’s really easy to lose your heading in the middle of the wilderness with no roads or signs. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  So basically, we’re lost?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alty"]  I’m not sure that’s how I’d put it. It’s not so much that we’re off course as it is we’re carving a new path.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Frost"]  We’re lost.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dan"]  We’re lost! That’s a pretty good theme.
+    <t xml:space="preserve">[name="Alty"]  And I have to admit, it's really easy to lose your heading in the middle of the wilderness with no roads or signs. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  So basically, we're lost?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alty"]  I'm not sure that's how I'd put it. It's not so much that we're off course as it is we're carving a new path.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Frost"]  We're lost.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dan"]  We're lost! That's a pretty good theme.
 </t>
   </si>
   <si>
@@ -1756,11 +1756,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  It looks like there’s a rainforest over that way. Let’s check it out.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  So, who’s getting out to push?
+    <t xml:space="preserve">[name="Alty"]  It looks like there's a rainforest over that way. Let's check it out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  So, who's getting out to push?
 </t>
   </si>
   <si>
@@ -1776,7 +1776,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  We’ve got a crowd here.
+    <t xml:space="preserve">[name="Aya"]  We've got a crowd here.
 </t>
   </si>
   <si>
@@ -1784,7 +1784,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  But I don’t know what language they’re speaking.
+    <t xml:space="preserve">[name="Alty"]  But I don't know what language they're speaking.
 </t>
   </si>
   <si>
@@ -1812,7 +1812,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria B"]  &amp;%......% (I’ve never heard anything like it...)
+    <t xml:space="preserve">[name="Archosauria B"]  &amp;%......% (I've never heard anything like it...)
 </t>
   </si>
   <si>
@@ -1820,11 +1820,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dan"]  Can you tell me what language you’re speaking?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dan"]  Oh, but I guess even if you told me, I still wouldn’t know.
+    <t xml:space="preserve">[name="Dan"]  Can you tell me what language you're speaking?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dan"]  Oh, but I guess even if you told me, I still wouldn't know.
 </t>
   </si>
   <si>
@@ -1840,7 +1840,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  I just hope there’s a place we can resupply. 
+    <t xml:space="preserve">[name="Alty"]  I just hope there's a place we can resupply. 
 </t>
   </si>
   <si>
@@ -1848,7 +1848,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  You’re outsiders?
+    <t xml:space="preserve">[name="Eunectes"]  You're outsiders?
 </t>
   </si>
   <si>
@@ -1856,7 +1856,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  Yes, it looks like you’re definitely outsiders.
+    <t xml:space="preserve">[name="Eunectes"]  Yes, it looks like you're definitely outsiders.
 </t>
   </si>
   <si>
@@ -1864,7 +1864,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  Our car died, so we’re looking for someone with the Arts to recharge it.
+    <t xml:space="preserve">[name="Alty"]  Our car died, so we're looking for someone with the Arts to recharge it.
 </t>
   </si>
   <si>
@@ -1880,11 +1880,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dan"]  Hey hey hey! What’s this?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dan"]  There’s a village here in the middle of this primeval forest!
+    <t xml:space="preserve">[name="Dan"]  Hey hey hey! What's this?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dan"]  There's a village here in the middle of this primeval forest!
 </t>
   </si>
   <si>
@@ -1892,11 +1892,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  It’s really amazing. You can see the influence of modern architecture on most of the buildings, but they still have that primitive beauty.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alty"]  It’s odd, but very special.
+    <t xml:space="preserve">[name="Aya"]  It's really amazing. You can see the influence of modern architecture on most of the buildings, but they still have that primitive beauty.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alty"]  It's odd, but very special.
 </t>
   </si>
   <si>
@@ -1924,11 +1924,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  Are you sure you won’t break it?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  I’m pretty sure.
+    <t xml:space="preserve">[name="Aya"]  Are you sure you won't break it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  I'm pretty sure.
 </t>
   </si>
   <si>
@@ -1936,7 +1936,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  It’s not like we have a choice.
+    <t xml:space="preserve">[name="Alty"]  It's not like we have a choice.
 </t>
   </si>
   <si>
@@ -1952,7 +1952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  I’m here! ...Oh? 
+    <t xml:space="preserve">[name="High Priest"]  I'm here! ...Oh? 
 </t>
   </si>
   <si>
@@ -1976,7 +1976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  But I’m more interested in your vehicle than you!
+    <t xml:space="preserve">[name="High Priest"]  But I'm more interested in your vehicle than you!
 </t>
   </si>
   <si>
@@ -1984,7 +1984,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  I said it before and I’ll say it again. The world is a magical place.
+    <t xml:space="preserve">[name="Aya"]  I said it before and I'll say it again. The world is a magical place.
 </t>
   </si>
   <si>
@@ -2012,11 +2012,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Frost"]  I’ll call this song... 'D'!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Where’s that sound coming from?
+    <t xml:space="preserve">[name="Frost"]  I'll call this song... 'D'!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria A"]  Where's that sound coming from?
 </t>
   </si>
   <si>
@@ -2024,7 +2024,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria C"]  It must be the outsiders who just came! Let’s go see!
+    <t xml:space="preserve">[name="Archosauria C"]  It must be the outsiders who just came! Let's go see!
 </t>
   </si>
   <si>
@@ -2032,7 +2032,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  That’s not good.
+    <t xml:space="preserve">[name="Alty"]  That's not good.
 </t>
   </si>
   <si>
@@ -2048,11 +2048,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  Alty... I know it’s unexpected, but I think the atmosphere here is actually really good.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  Why don’t we get out the amps and play together?
+    <t xml:space="preserve">[name="Aya"]  Alty... I know it's unexpected, but I think the atmosphere here is actually really good.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  Why don't we get out the amps and play together?
 </t>
   </si>
   <si>
@@ -2060,7 +2060,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dan"]  Yeah, can’t let Frost take all the glory!
+    <t xml:space="preserve">[name="Dan"]  Yeah, can't let Frost take all the glory!
 </t>
   </si>
   <si>
@@ -2072,15 +2072,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  It’s just a few notes, but I’m too excited to sit still!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria B"]  It might be like what the priests do, it’s called 'music'?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria C"]  I’ve never heard anything like it! Who are these people?!
+    <t xml:space="preserve">[name="Archosauria A"]  It's just a few notes, but I'm too excited to sit still!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria B"]  It might be like what the priests do, it's called 'music'?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria C"]  I've never heard anything like it! Who are these people?!
 </t>
   </si>
   <si>
@@ -2088,19 +2088,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dan"]  'Cuicayotl'?  What’s that?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  Oh, that’s how you say 'one who sings' in their language.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  But it’s been a long time since they had a 'Cuicayotl' here, and you’ve won them over with your music.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  And I must say, your music is vastly different from that of any other 'Cuicayotl' I’ve ever heard before!
+    <t xml:space="preserve">[name="Dan"]  'Cuicayotl'?  What's that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  Oh, that's how you say 'one who sings' in their language.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  But it's been a long time since they had a 'Cuicayotl' here, and you've won them over with your music.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  And I must say, your music is vastly different from that of any other 'Cuicayotl' I've ever heard before!
 </t>
   </si>
   <si>
@@ -2112,7 +2112,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria F"]  I’ll give you anything! Just one more song!
+    <t xml:space="preserve">[name="Archosauria F"]  I'll give you anything! Just one more song!
 </t>
   </si>
   <si>
@@ -2120,15 +2120,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dan"]  Let’s stay here, Alty!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alty"]  Well, I can’t let you forget our goal...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alty"]  But, fine. We’ve got time.
+    <t xml:space="preserve">[name="Dan"]  Let's stay here, Alty!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alty"]  Well, I can't let you forget our goal...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alty"]  But, fine. We've got time.
 </t>
   </si>
   <si>
@@ -2140,11 +2140,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  Where’s Zumama?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  She’s making the speaker system you asked for. So I’ll be taking you.
+    <t xml:space="preserve">[name="Alty"]  Where's Zumama?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  She's making the speaker system you asked for. So I'll be taking you.
 </t>
   </si>
   <si>
@@ -2168,11 +2168,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  It’s... some kind of temple?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  That’s right. This is where all the tribes used to gather for the 'Mahuizzotia', but it hasn’t been used since Gavial left.
+    <t xml:space="preserve">[name="Alty"]  It's... some kind of temple?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  That's right. This is where all the tribes used to gather for the 'Mahuizzotia', but it hasn't been used since Gavial left.
 </t>
   </si>
   <si>
@@ -2180,7 +2180,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  Gavial? That name came up at Rhodes Island... No, it’s probably just a common name.
+    <t xml:space="preserve">[name="Alty"]  Gavial? That name came up at Rhodes Island... No, it's probably just a common name.
 </t>
   </si>
   <si>
@@ -2188,11 +2188,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Frost"]  We’re going to give the people the best music they’ve ever heard.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dan"]  Yes, hahaha! Yes! We’ll leave the mark of AUS right here!
+    <t xml:space="preserve">[name="Frost"]  We're going to give the people the best music they've ever heard.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dan"]  Yes, hahaha! Yes! We'll leave the mark of AUS right here!
 </t>
   </si>
   <si>
@@ -2208,7 +2208,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  If Gavial ever comes back, she’s going to be blown away by the music we have way out here now.
+    <t xml:space="preserve">[name="Inam"]  If Gavial ever comes back, she's going to be blown away by the music we have way out here now.
 </t>
   </si>
   <si>
@@ -2220,7 +2220,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  ...I wonder maybe if I’m their biggest fan.
+    <t xml:space="preserve">[name="Inam"]  ...I wonder maybe if I'm their biggest fan.
 </t>
   </si>
   <si>
@@ -2236,15 +2236,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  They’re gone?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  There’s a note on the table. Let’s see...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  'We left. Don’t miss us. I hope you enjoyed the music. Also, we left all our records here for you. Have fun.  -AUS'
+    <t xml:space="preserve">[name="Inam"]  They're gone?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  There's a note on the table. Let's see...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  'We left. Don't miss us. I hope you enjoyed the music. Also, we left all our records here for you. Have fun.  -AUS'
 </t>
   </si>
   <si>
@@ -2252,7 +2252,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  I don’t think I’ll ever forget that Acahualla place.
+    <t xml:space="preserve">[name="Alty"]  I don't think I'll ever forget that Acahualla place.
 </t>
   </si>
   <si>
@@ -2268,7 +2268,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  Of course you do. I don’t think you’d mind if we left you there.
+    <t xml:space="preserve">[name="Aya"]  Of course you do. I don't think you'd mind if we left you there.
 </t>
   </si>
   <si>
@@ -2276,23 +2276,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dan"]  Don’t you think those people have a kind of natural, primal energy?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dan"]  Out of all the countries and cities we’ve been to, I’ve never seen people like that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dan"]  I love ‘em!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  Well, you’re right about that much.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Frost"]  They really get our music. They’re the best audience we’ve ever had.
+    <t xml:space="preserve">[name="Dan"]  Don't you think those people have a kind of natural, primal energy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dan"]  Out of all the countries and cities we've been to, I've never seen people like that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dan"]  I love 'em!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  Well, you're right about that much.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Frost"]  They really get our music. They're the best audience we've ever had.
 </t>
   </si>
   <si>
@@ -2300,19 +2300,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  But we can’t just show up and flip a whole civilization upside-down. We should stick to singing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  Didn’t we say that before?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alty"]  Who knows? We might’ve said it a million times already.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alty"]  Let’s go. Continue on our journey.
+    <t xml:space="preserve">[name="Alty"]  But we can't just show up and flip a whole civilization upside-down. We should stick to singing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  Didn't we say that before?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alty"]  Who knows? We might've said it a million times already.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alty"]  Let's go. Continue on our journey.
 </t>
   </si>
   <si>
@@ -2324,7 +2324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Alty looks at the key in her hand, 'Dr. Kal'tsit, can that Rhodes Island of yours give the world the answer it’s looking for?'
+    <t xml:space="preserve">Alty looks at the key in her hand, 'Dr. Kal'tsit, can that Rhodes Island of yours give the world the answer it's looking for?'
 </t>
   </si>
   <si>
